--- a/docs/테이블정의서.xlsx
+++ b/docs/테이블정의서.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gayeong/Desktop/0. web-workspace/project_management/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A0A459-58DA-4F43-B28F-DBF7A8E0504C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFE2825-B3D3-C541-8752-E5D9D4BB5510}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" xr2:uid="{FC9FF7C4-F937-8A44-827A-DE8B55912A71}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{FC9FF7C4-F937-8A44-827A-DE8B55912A71}"/>
   </bookViews>
   <sheets>
     <sheet name="정의서" sheetId="1" r:id="rId1"/>
     <sheet name="테이블스페이스 쿼리" sheetId="2" r:id="rId2"/>
+    <sheet name="테이블(시퀀스)생성 쿼리" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
   <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,18 +233,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소속 회사 고유 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상태(자리비움, 휴가 등), 공통코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CORP_NUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MEM_WORK_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,15 +281,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB_CORP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사 고유 번호(seq_corp_num)</t>
+    <t>TB_GOUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속 회사 혹은 프로젝트 그룹 고유 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속 회사 혹은 프로젝트 그룹 고유 번호(seq_group_num)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속 회사 혹은 프로젝트 그룹 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_COMMON_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통코드 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 코드 : 재직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 코드 : 휴직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 코드 : 퇴사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_ON_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_ON_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_ON_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_M_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_M_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_M_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_M_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_M_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 코드 : 휴가 (메신저 상태)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 코드 : 자리비움 (메신저 상태)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 코드 : 회의 (메신저 상태)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 코드 : 식사 (메신저 상태)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 코드 : 야근 (메신저 상태)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_USE_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 여부 (Y: 사용, N: 미사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 등록자 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_GROUP_ADMIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_ADMIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 관리자 여부 (권한 상승)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -477,6 +586,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -504,7 +616,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196E575B-7554-E846-A05C-ACB85A13203C}">
-  <dimension ref="B2:I26"/>
+  <dimension ref="B2:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -832,7 +950,7 @@
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -869,11 +987,11 @@
       <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="4" t="s">
@@ -893,7 +1011,7 @@
       <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="4" t="s">
@@ -927,7 +1045,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>27</v>
@@ -936,10 +1054,10 @@
       <c r="G7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="16"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="5">
@@ -949,17 +1067,17 @@
         <v>34</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="5">
@@ -969,15 +1087,15 @@
         <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="5">
@@ -987,15 +1105,15 @@
         <v>35</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="5">
@@ -1005,15 +1123,15 @@
         <v>36</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="5">
@@ -1023,15 +1141,15 @@
         <v>42</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="5">
@@ -1041,15 +1159,15 @@
         <v>43</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="5">
@@ -1059,15 +1177,15 @@
         <v>44</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="15"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="5">
@@ -1077,15 +1195,15 @@
         <v>47</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="15"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="5">
@@ -1095,17 +1213,17 @@
         <v>46</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="15"/>
+      <c r="H16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="5">
@@ -1115,15 +1233,15 @@
         <v>48</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="15"/>
+      <c r="H17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="5">
@@ -1133,15 +1251,15 @@
         <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="15"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="5">
@@ -1151,145 +1269,424 @@
         <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="15"/>
+      <c r="H19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="5">
         <v>14</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="16"/>
+      <c r="H20" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="5">
         <v>15</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="16"/>
+      <c r="H21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="5">
         <v>16</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="5">
+        <v>17</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="5">
+        <v>18</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="4" t="s">
+      <c r="D28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="5">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4" t="s">
+      <c r="C31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4" t="s">
+      <c r="F31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="4" t="s">
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="5">
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="17">
         <v>1</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="16"/>
+      <c r="C33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="17">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="17">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="17">
+        <v>4</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="17">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="17">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38" s="19"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="17">
+        <v>7</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="17">
+        <v>8</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="17">
+        <v>9</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I41" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="43">
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H36:I36"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
@@ -1324,7 +1721,7 @@
   <dimension ref="B1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B13:B14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1334,29 +1731,29 @@
   <sheetData>
     <row r="1" spans="2:5" ht="19" thickBot="1"/>
     <row r="2" spans="2:5" ht="19" thickBot="1">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="57">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="12"/>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" ht="39" thickBot="1">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1364,4 +1761,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968AEDF2-2F03-F64D-A89C-7E92339B1404}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/테이블정의서.xlsx
+++ b/docs/테이블정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gayeong/Desktop/0. web-workspace/project_management/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFE2825-B3D3-C541-8752-E5D9D4BB5510}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE093E17-02E9-4243-BE67-2434CA8A0343}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{FC9FF7C4-F937-8A44-827A-DE8B55912A71}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
   <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,82 +313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공통코드 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태 코드 : 재직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태 코드 : 휴직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태 코드 : 퇴사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAT_ON_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAT_ON_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAT_ON_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAT_M_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAT_M_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAT_M_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAT_M_04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAT_M_05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태 코드 : 휴가 (메신저 상태)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태 코드 : 자리비움 (메신저 상태)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태 코드 : 회의 (메신저 상태)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태 코드 : 식사 (메신저 상태)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태 코드 : 야근 (메신저 상태)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAT_USE_YN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 여부 (Y: 사용, N: 미사용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CHAR(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,6 +330,54 @@
   </si>
   <si>
     <t>그룹 관리자 여부 (권한 상승)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 코드 : 사용 여부 (Y: 사용, N: 미사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 코드 : 재직/휴직/퇴사 (1/2/3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_ON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAT_MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_YN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사별 직급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRUP_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메신저 상태 : 휴가/자리비움/회의/식사/야근/자리 (1/2/3/4/5/6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 직접 insert, 한 그룹 당 행이 여러개 생김</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,9 +558,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -620,9 +589,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -939,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196E575B-7554-E846-A05C-ACB85A13203C}">
-  <dimension ref="B2:I41"/>
+  <dimension ref="B2:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -950,7 +916,7 @@
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" customWidth="1"/>
+    <col min="9" max="9" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -987,11 +953,11 @@
       <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="4" t="s">
@@ -1011,7 +977,7 @@
       <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="8"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="4" t="s">
@@ -1054,10 +1020,10 @@
       <c r="G7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="18"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="5">
@@ -1074,10 +1040,10 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="16"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="5">
@@ -1092,10 +1058,10 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="5">
@@ -1110,10 +1076,10 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="5">
@@ -1128,10 +1094,10 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="15"/>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="5">
@@ -1146,10 +1112,10 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="16"/>
+      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="5">
@@ -1164,10 +1130,10 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="16"/>
+      <c r="I13" s="15"/>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="5">
@@ -1182,10 +1148,10 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="16"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="5">
@@ -1200,10 +1166,10 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="16"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="5">
@@ -1220,10 +1186,10 @@
       <c r="G16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="16"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="5">
@@ -1238,10 +1204,10 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="16"/>
+      <c r="I17" s="15"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="5">
@@ -1256,10 +1222,10 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="16"/>
+      <c r="I18" s="15"/>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="5">
@@ -1274,10 +1240,10 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I19" s="16"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="5">
@@ -1294,10 +1260,10 @@
       <c r="G20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="18"/>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="5">
@@ -1312,10 +1278,10 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="5">
@@ -1330,48 +1296,48 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="18"/>
+      <c r="I22" s="17"/>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="5">
         <v>17</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="18"/>
+      <c r="H23" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="17"/>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="5">
         <v>18</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="18"/>
+      <c r="H24" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="17"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="4" t="s">
@@ -1391,7 +1357,7 @@
       <c r="H26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="8"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="4" t="s">
@@ -1434,10 +1400,10 @@
       <c r="G28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="18"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="5">
@@ -1452,12 +1418,12 @@
       <c r="E29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="18" t="s">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="I29" s="18"/>
+      <c r="I29" s="17"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="4" t="s">
@@ -1471,13 +1437,13 @@
         <v>2</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="8"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="4" t="s">
@@ -1504,183 +1470,166 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="17">
+      <c r="B33" s="16">
         <v>1</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="I33" s="18"/>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="17"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="17">
+      <c r="B34" s="16">
         <v>2</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5">
+        <v>6</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="16">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="17">
+      <c r="I35" s="15"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="17">
-        <v>4</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="18" t="s">
+      <c r="D38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="16">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I36" s="18"/>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="17">
-        <v>5</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="I37" s="18"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="17">
-        <v>6</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="I38" s="19"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="17">
-        <v>7</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="D39" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="16">
+        <v>2</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I39" s="18"/>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="17">
-        <v>8</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="D40" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="I40" s="18"/>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="17">
-        <v>9</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="I41" s="16"/>
+        <v>54</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="42">
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
     <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H41:I41"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H36:I36"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="F26:G26"/>
@@ -1731,29 +1680,29 @@
   <sheetData>
     <row r="1" spans="2:5" ht="19" thickBot="1"/>
     <row r="2" spans="2:5" ht="19" thickBot="1">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="57">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="13"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" ht="39" thickBot="1">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/테이블정의서.xlsx
+++ b/docs/테이블정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gayeong/Desktop/0. web-workspace/project_management/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE093E17-02E9-4243-BE67-2434CA8A0343}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9EA559-9737-D244-AF60-45F4D059CF4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{FC9FF7C4-F937-8A44-827A-DE8B55912A71}"/>
   </bookViews>
@@ -27,366 +27,665 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="148">
   <si>
     <t>회원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>테이블명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>테이블 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>컬럼명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>컬럼 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NULL 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TB_MEMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>테이블스페이스명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>유저 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>유저 PW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>테이블스페이스 파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>P_M_ADMIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PROJECT_MANAGEMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PROJECT_MANAGEMENT.dbf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/opt/oracle/homes/OraDBHome21cXE/dbs/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>테이블스페이스 생성 쿼리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ALTER SESSION SET "_ORACLE_SCRIPT" = TRUE;</t>
   </si>
   <si>
     <t>CREATE TABLESPACE PROJECT_MANAGEMENT DATAFILE '/opt/oracle/homes/OraDBHome21cXE/dbs/PROJECT_MANAGEMENT.dbf' SIZE 300M REUSE AUTOEXTEND ON NEXT 1024K MAXSIZE UNLIMITED;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CREATE USER P_M_ADMIN IDENTIFIED BY P_M_ADMIN
 DEFAULT TABLESPACE PROJECT_MANAGEMENT;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEM_NUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NOT NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>회원 고유 번호 (seq_mem_num)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>회원 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>회원 비밀번호(암호화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>회원 이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>회원 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEM_PW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEM_EMAIL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEM_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사내 유선 전화 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>소속 부서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>소속 팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>직급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEM_DEPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEM_TEAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEM_RANK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>직무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEM_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEM_JOB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEM_SUB_OFFICER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEM_CORP_TEL_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEM_PHONE_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상태(자리비움, 휴가 등), 공통코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEM_WORK_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEM_USE_YN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>대직자 고유 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>개인 핸드폰 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>재직 여부, 공통코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사용 여부, 공통코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_GOUP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GROUP_NUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>소속 회사 혹은 프로젝트 그룹 고유 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>소속 회사 혹은 프로젝트 그룹 고유 번호(seq_group_num)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GROUP_NM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>소속 회사 혹은 프로젝트 그룹 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>그룹 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TB_COMMON_CODE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CHAR(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>그룹 등록자 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEM_GROUP_ADMIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>MEM_ADMIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>그룹 관리자 여부 (권한 상승)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상태 코드 : 사용 여부 (Y: 사용, N: 미사용)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상태 코드 : 재직/휴직/퇴사 (1/2/3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>STAT_ON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>STAT_MS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>USER_YN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사별 직급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>공통코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRUP_NUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>메신저 상태 : 휴가/자리비움/회의/식사/야근/자리 (1/2/3/4/5/6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RANK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>사용자가 직접 insert, 한 그룹 당 행이 여러개 생김</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_RANK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_GROUP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RANK_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직급 고유 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속 회사 혹은 프로젝트 그룹 상에서 직급 (기본형: XX님)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_PROJECT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 혹은 그룹별 직급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료 날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 부서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수신 부서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 내용 상세</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 내용 간략히</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>협의일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 고유 번호 (seq_project_num)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>START_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQUEST_DEPT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQUIRED_DEPT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT_SHORT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT_DETAIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일 (기획서 및 기타 참고 자료) 경로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQUEST_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGREE_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQUEST_MEM_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TASK_MEM_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODIFIED_MEM_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDITIONAL_FILE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청자 (MEMBER 테이블의 MEM_NUM)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>업무 담당자</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MEMBER 테이블의 MEM_NUM)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경된 업무 담당자 (MEMBER 테이블의 MEM_NUM)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(1000)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 혹은 그룹별 결재라인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_NM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 직접 insert, 한 프로젝트 당 행이 여러개 생김</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>결재 담당자</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(MEMBER 테이블의 MEM_NUM)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재 순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 혹은 그룹별 착수 단계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_PROCESS_STEP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_PROCESS_DO_STEP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCESS_STEP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCESS_DO_STEP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCESS_DO_STEP_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCESS_STEP_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 번호 (seq_process_step_num)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCESS_DO_STEP_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 번호 (seq_process_do_step_num)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>착수단계 명명 (ex. 요청 - 수신 - 분석 - 설계 - 착수 - 완료 - 테스트)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>착수 단계 순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CONTRIBUTER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 참여자 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTRIBUTER_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 참여자 고유 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가로 필요한 테이블 :</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 별 추가할 업무 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인에게 할당되는 업무 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인이 자기 페이지에 기록한 업무 목록 (일별  TODO LIST, 주간, 월간, 연간….)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치화해주어야함… (후에 착수진행현황 그래프로 보여주고 싶음)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -536,7 +835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,6 +857,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -567,16 +869,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -589,6 +891,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -905,762 +1216,1711 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196E575B-7554-E846-A05C-ACB85A13203C}">
-  <dimension ref="B2:I40"/>
+  <dimension ref="B2:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="43.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:10">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="4" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="4" t="s">
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="5">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="3"/>
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="I7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="5">
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="3"/>
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="5">
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="3"/>
+      <c r="C9" s="5">
         <v>3</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="5">
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="3"/>
+      <c r="C10" s="5">
         <v>4</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="5">
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="3"/>
+      <c r="C11" s="5">
         <v>5</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="5">
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="3"/>
+      <c r="C12" s="5">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="5">
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="3"/>
+      <c r="C13" s="5">
         <v>7</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="5">
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="3"/>
+      <c r="C14" s="5">
         <v>8</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="5"/>
+      <c r="I14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="5">
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="3"/>
+      <c r="C15" s="5">
         <v>9</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="5"/>
+      <c r="I15" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="5">
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="3"/>
+      <c r="C16" s="5">
         <v>10</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="I16" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="5">
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="3"/>
+      <c r="C17" s="5">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="5"/>
+      <c r="I17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="5">
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="3"/>
+      <c r="C18" s="5">
         <v>12</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="5"/>
+      <c r="I18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="5">
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="3"/>
+      <c r="C19" s="5">
         <v>13</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="5"/>
+      <c r="I19" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="5">
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="3"/>
+      <c r="C20" s="5">
         <v>14</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="5">
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="3"/>
+      <c r="C21" s="5">
         <v>15</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="5"/>
+      <c r="I21" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="5">
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="3"/>
+      <c r="C22" s="5">
         <v>16</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="5"/>
+      <c r="I22" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="5">
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="3"/>
+      <c r="C23" s="5">
         <v>17</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="3"/>
+      <c r="C24" s="5">
+        <v>18</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="5">
-        <v>18</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="5"/>
+      <c r="I24" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="3"/>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="3"/>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="3"/>
+      <c r="C32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="3"/>
+      <c r="C33" s="17">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="3"/>
+      <c r="C34" s="17">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="5">
+        <v>6</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="3"/>
+      <c r="C35" s="17">
+        <v>3</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="4" t="s">
+      <c r="J35" s="16"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="3"/>
+      <c r="C38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="3"/>
+      <c r="C39" s="19">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="3"/>
+      <c r="C40" s="17">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4" t="s">
+      <c r="E40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="3"/>
+      <c r="C41" s="17">
+        <v>3</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="3">
+        <v>5</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4" t="s">
+      <c r="G43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="4" t="s">
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="3"/>
+      <c r="C44" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="5">
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="3"/>
+      <c r="C45" s="5">
         <v>1</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="D45" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
+      <c r="G45" s="5"/>
+      <c r="H45" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="5">
+      <c r="I45" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="3"/>
+      <c r="C46" s="5">
         <v>2</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="D46" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="F46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" s="17"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="4" t="s">
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="3"/>
+      <c r="C47" s="5">
+        <v>3</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J47" s="18"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="3"/>
+      <c r="C48" s="5">
+        <v>4</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="3"/>
+      <c r="C49" s="5">
+        <v>5</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="3"/>
+      <c r="C50" s="5">
+        <v>6</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="3"/>
+      <c r="C51" s="5">
+        <v>7</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J51" s="18"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="3"/>
+      <c r="C52" s="5">
+        <v>8</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="3"/>
+      <c r="C53" s="5">
+        <v>9</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J53" s="18"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="3"/>
+      <c r="C54" s="5">
+        <v>10</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="3"/>
+      <c r="C55" s="5">
+        <v>11</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="3"/>
+      <c r="C56" s="5">
+        <v>12</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="J56" s="18"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="3"/>
+      <c r="C57" s="5">
+        <v>13</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J57" s="18"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="3"/>
+      <c r="C58" s="5">
+        <v>14</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J58" s="18"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="3">
+        <v>6</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4" t="s">
+      <c r="D60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4" t="s">
+      <c r="G60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="4" t="s">
+      <c r="J60" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="3"/>
+      <c r="C61" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D61" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E61" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F61" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G61" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="16">
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="3"/>
+      <c r="C62" s="5">
         <v>1</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5">
+      <c r="D62" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J62" s="18"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="3"/>
+      <c r="C63" s="5">
+        <v>2</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J63" s="18"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="3"/>
+      <c r="C64" s="5">
+        <v>3</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J64" s="18"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="3"/>
+      <c r="C65" s="5">
+        <v>4</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J65" s="18"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="3"/>
+      <c r="C66" s="5">
+        <v>5</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="J66" s="18"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="3">
+        <v>7</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="D68" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="3"/>
+      <c r="C69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="3"/>
+      <c r="C70" s="5">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="J70" s="18"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="3"/>
+      <c r="C71" s="5">
+        <v>2</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="I33" s="17"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="16">
+      <c r="I71" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J71" s="18"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="3"/>
+      <c r="C72" s="5">
+        <v>3</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J72" s="18"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="3"/>
+      <c r="C73" s="5">
+        <v>4</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J73" s="18"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="3"/>
+      <c r="C74" s="5">
+        <v>5</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J74" s="18"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="3">
+        <v>8</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5">
+      <c r="G76" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H76" s="3"/>
+      <c r="I76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="3"/>
+      <c r="C77" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="I34" s="17"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="16">
+      <c r="G77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="3"/>
+      <c r="C78" s="5">
+        <v>1</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J78" s="18"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="3"/>
+      <c r="C79" s="5">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I79" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="J79" s="18"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="3"/>
+      <c r="C80" s="5">
         <v>3</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35" s="5" t="s">
+      <c r="D80" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H35" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I35" s="15"/>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="4" t="s">
+      <c r="I80" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J80" s="18"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="3"/>
+      <c r="C81" s="5">
         <v>4</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="16">
-        <v>1</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="D81" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="F81" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5" t="s">
+      <c r="G81" s="5"/>
+      <c r="H81" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="16">
-        <v>2</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
+      <c r="I81" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J81" s="18"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:I3"/>
+  <mergeCells count="92">
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="B68:B74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B5:B24"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="B43:B58"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1680,34 +2940,34 @@
   <sheetData>
     <row r="1" spans="2:5" ht="19" thickBot="1"/>
     <row r="2" spans="2:5" ht="19" thickBot="1">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="57">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="12"/>
+      <c r="B4" s="13"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" ht="39" thickBot="1">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1720,7 +2980,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/테이블정의서.xlsx
+++ b/docs/테이블정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gayeong/Desktop/0. web-workspace/project_management/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9EA559-9737-D244-AF60-45F4D059CF4A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7D9223-3AB5-8241-950C-4893A9EF3E8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{FC9FF7C4-F937-8A44-827A-DE8B55912A71}"/>
+    <workbookView xWindow="39000" yWindow="500" windowWidth="28200" windowHeight="19920" xr2:uid="{FC9FF7C4-F937-8A44-827A-DE8B55912A71}"/>
   </bookViews>
   <sheets>
     <sheet name="정의서" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="165">
   <si>
     <t>회원</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -310,22 +310,6 @@
   </si>
   <si>
     <t>CHAR(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 등록자 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_GROUP_ADMIN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_ADMIN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 관리자 여부 (권한 상승)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -668,6 +652,90 @@
   </si>
   <si>
     <t>수치화해주어야함… (후에 착수진행현황 그래프로 보여주고 싶음)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTH_TOKEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTH_TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소셜로그인 타입, K : 카카오, N: 네이버, G : 구글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소셜 로그인 토큰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_ADMIN_ACCEPT_YN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업 회원일 경우 관리자 승인 여부 (Y: 승인, N : 미승인 상태, 기본)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 등록 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 수정 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 등록자명 (기본 : 입력받은 가입한 사람의 이름)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 수정자명 (ex. 기업체 어드민 계정 보유자)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_REG_NM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_REG_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_MODIFIED_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_MODIFIED_NM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_GROUP_MASTER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 번호 (seq_group_master_num)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_MASTER_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_GOURP_ADMIN_YN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_GROUP_REG_YN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 등록자 여부 (Y : 등록자, N : 등록자 아님)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 관리자 여부 (권한 상승) (Y : 관리자, N : 관리자 아님)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -835,7 +903,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -852,6 +920,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,6 +956,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -901,6 +981,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196E575B-7554-E846-A05C-ACB85A13203C}">
-  <dimension ref="B2:J87"/>
+  <dimension ref="B2:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1263,18 +1352,18 @@
         <v>15</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="3">
@@ -1297,7 +1386,7 @@
       <c r="I5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" s="3"/>
@@ -1342,10 +1431,10 @@
       <c r="H7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="18"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="3"/>
@@ -1363,10 +1452,10 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="16"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="3"/>
@@ -1382,10 +1471,10 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="16"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="3"/>
@@ -1401,10 +1490,10 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="16"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="3"/>
@@ -1412,18 +1501,18 @@
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="16"/>
+      <c r="I11" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="3"/>
@@ -1431,18 +1520,18 @@
         <v>6</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="16"/>
+      <c r="I12" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="3"/>
@@ -1450,7 +1539,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>54</v>
@@ -1458,10 +1547,10 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="16"/>
+      <c r="I13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="3"/>
@@ -1469,7 +1558,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>54</v>
@@ -1477,10 +1566,10 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="16"/>
+      <c r="I14" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="3"/>
@@ -1488,18 +1577,18 @@
         <v>9</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="16"/>
+      <c r="I15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="3"/>
@@ -1507,20 +1596,18 @@
         <v>10</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="16"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="3"/>
@@ -1528,18 +1615,18 @@
         <v>11</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="16"/>
+      <c r="I17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="3"/>
@@ -1547,18 +1634,20 @@
         <v>12</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="16"/>
+      <c r="H18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="3"/>
@@ -1566,7 +1655,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>55</v>
@@ -1574,10 +1663,10 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" s="16"/>
+      <c r="I19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="20"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="3"/>
@@ -1585,20 +1674,18 @@
         <v>14</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="18"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="3"/>
@@ -1606,18 +1693,18 @@
         <v>15</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" s="18"/>
+      <c r="I21" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="3"/>
@@ -1625,18 +1712,20 @@
         <v>16</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" s="18"/>
+      <c r="H22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="3"/>
@@ -1644,20 +1733,18 @@
         <v>17</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" s="18"/>
+      <c r="I23" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="3"/>
@@ -1665,133 +1752,155 @@
         <v>18</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J24" s="18"/>
+      <c r="I24" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="3"/>
+      <c r="C25" s="5">
+        <v>19</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="3">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="8"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="5">
+        <v>20</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="3"/>
-      <c r="C27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="2"/>
+      <c r="C27" s="5">
+        <v>21</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="3"/>
       <c r="C28" s="5">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" s="18"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="3"/>
       <c r="C29" s="5">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="3"/>
+      <c r="D31" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="18"/>
       <c r="F31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31" s="3"/>
+      <c r="G31" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="18"/>
       <c r="I31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J31" s="8"/>
+      <c r="J31" s="10" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="3"/>
@@ -1813,908 +1922,906 @@
       <c r="H32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I32" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="3"/>
-      <c r="C33" s="17">
+      <c r="C33" s="5">
         <v>1</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="5">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J33" s="18"/>
+      <c r="D33" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J33" s="12"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="3"/>
-      <c r="C34" s="17">
+      <c r="C34" s="5">
         <v>2</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" s="5">
-        <v>6</v>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J34" s="18"/>
+      <c r="D34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J34" s="22"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="3"/>
-      <c r="C35" s="17">
+      <c r="C35" s="5">
         <v>3</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>79</v>
+      <c r="D35" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I35" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="J35" s="16"/>
+      <c r="I35" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="3"/>
+      <c r="C36" s="5">
+        <v>4</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J36" s="12"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="3">
-        <v>4</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="5">
+        <v>5</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="3">
+        <v>3</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4" t="s">
+      <c r="D39" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="4" t="s">
+      <c r="G39" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="18"/>
+      <c r="I39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="3"/>
-      <c r="C38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="3"/>
-      <c r="C39" s="19">
-        <v>1</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J39" s="21"/>
+      <c r="J39" s="10"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="3"/>
-      <c r="C40" s="17">
-        <v>2</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J40" s="18"/>
+      <c r="C40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="28"/>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="3"/>
-      <c r="C41" s="17">
-        <v>3</v>
+      <c r="C41" s="5">
+        <v>1</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="3">
-        <v>5</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="G41" s="5"/>
+      <c r="H41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J41" s="22"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="3"/>
+      <c r="C42" s="5">
+        <v>2</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J42" s="22"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="3">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="4" t="s">
+      <c r="D44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="4" t="s">
+      <c r="G44" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="3"/>
-      <c r="C44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" s="2"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="3"/>
-      <c r="C45" s="5">
-        <v>1</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J45" s="18"/>
+      <c r="C45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="3"/>
-      <c r="C46" s="5">
-        <v>2</v>
+      <c r="C46" s="21">
+        <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="J46" s="18"/>
+      <c r="G46" s="5">
+        <v>1</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" s="22"/>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="3"/>
-      <c r="C47" s="5">
-        <v>3</v>
+      <c r="C47" s="21">
+        <v>2</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="J47" s="18"/>
+      <c r="G47" s="5">
+        <v>6</v>
+      </c>
+      <c r="H47" s="10"/>
+      <c r="I47" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="J47" s="22"/>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="3"/>
-      <c r="C48" s="5">
-        <v>4</v>
+      <c r="C48" s="21">
+        <v>3</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="J48" s="18"/>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="3"/>
-      <c r="C49" s="5">
+        <v>70</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="3">
         <v>5</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="J49" s="18"/>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" s="3"/>
-      <c r="C50" s="5">
-        <v>6</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="J50" s="18"/>
+      <c r="C50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" s="3"/>
-      <c r="C51" s="5">
+      <c r="C51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="J51" s="18"/>
+      <c r="H51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="2"/>
     </row>
     <row r="52" spans="2:10">
       <c r="B52" s="3"/>
-      <c r="C52" s="5">
-        <v>8</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="J52" s="18"/>
+      <c r="C52" s="23">
+        <v>1</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J52" s="25"/>
     </row>
     <row r="53" spans="2:10">
       <c r="B53" s="3"/>
-      <c r="C53" s="5">
-        <v>9</v>
+      <c r="C53" s="21">
+        <v>2</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F53" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J53" s="18"/>
+      <c r="H53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J53" s="22"/>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" s="3"/>
-      <c r="C54" s="5">
-        <v>10</v>
+      <c r="C54" s="21">
+        <v>3</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="J54" s="18"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="3"/>
-      <c r="C55" s="5">
-        <v>11</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="J55" s="18"/>
+        <v>54</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J54" s="22"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="3"/>
-      <c r="C56" s="5">
-        <v>12</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I56" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="J56" s="18"/>
+      <c r="B56" s="3">
+        <v>6</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="10"/>
     </row>
     <row r="57" spans="2:10">
       <c r="B57" s="3"/>
-      <c r="C57" s="5">
-        <v>13</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I57" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="J57" s="18"/>
+      <c r="C57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" s="2"/>
     </row>
     <row r="58" spans="2:10">
       <c r="B58" s="3"/>
       <c r="C58" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D58" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J58" s="22"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="3"/>
+      <c r="C59" s="5">
+        <v>2</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="J59" s="22"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="3"/>
+      <c r="C60" s="5">
+        <v>3</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="J58" s="18"/>
-    </row>
-    <row r="60" spans="2:10">
-      <c r="B60" s="3">
-        <v>6</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>124</v>
-      </c>
+      <c r="F60" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="J60" s="22"/>
     </row>
     <row r="61" spans="2:10">
       <c r="B61" s="3"/>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="5">
         <v>4</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J61" s="2"/>
+      <c r="D61" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J61" s="22"/>
     </row>
     <row r="62" spans="2:10">
       <c r="B62" s="3"/>
       <c r="C62" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F62" s="5"/>
       <c r="G62" s="5"/>
-      <c r="H62" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="J62" s="18"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="J62" s="22"/>
     </row>
     <row r="63" spans="2:10">
       <c r="B63" s="3"/>
       <c r="C63" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F63" s="5"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I63" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J63" s="18"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J63" s="22"/>
     </row>
     <row r="64" spans="2:10">
       <c r="B64" s="3"/>
       <c r="C64" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I64" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J64" s="18"/>
+      <c r="I64" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="J64" s="22"/>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="3"/>
       <c r="C65" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F65" s="5"/>
       <c r="G65" s="5"/>
-      <c r="H65" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I65" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="J65" s="18"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J65" s="22"/>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="3"/>
       <c r="C66" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-      <c r="I66" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="J66" s="18"/>
+      <c r="I66" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="J66" s="22"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="3"/>
+      <c r="C67" s="5">
+        <v>10</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="J67" s="22"/>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="3">
-        <v>7</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>124</v>
-      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="5">
+        <v>11</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="J68" s="22"/>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="3"/>
-      <c r="C69" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J69" s="2"/>
+      <c r="C69" s="5">
+        <v>12</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J69" s="22"/>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="3"/>
       <c r="C70" s="5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I70" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="J70" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="J70" s="22"/>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" s="3"/>
       <c r="C71" s="5">
+        <v>14</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="J71" s="22"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="3">
+        <v>7</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I71" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J71" s="18"/>
-    </row>
-    <row r="72" spans="2:10">
-      <c r="B72" s="3"/>
-      <c r="C72" s="5">
-        <v>3</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I72" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J72" s="18"/>
-    </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="3"/>
-      <c r="C73" s="5">
-        <v>4</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="J73" s="18"/>
+      <c r="G73" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H73" s="3"/>
+      <c r="I73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="74" spans="2:10">
       <c r="B74" s="3"/>
-      <c r="C74" s="5">
+      <c r="C74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E74" s="5" t="s">
+      <c r="F74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="3"/>
+      <c r="C75" s="5">
+        <v>1</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="J74" s="18"/>
+      <c r="F75" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="J75" s="22"/>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="3">
-        <v>8</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="4" t="s">
+      <c r="B76" s="3"/>
+      <c r="C76" s="5">
         <v>2</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J76" s="8"/>
+      <c r="D76" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I76" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J76" s="22"/>
     </row>
     <row r="77" spans="2:10">
       <c r="B77" s="3"/>
-      <c r="C77" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" s="4" t="s">
+      <c r="C77" s="5">
         <v>3</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J77" s="2"/>
+      <c r="D77" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I77" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J77" s="22"/>
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="3"/>
       <c r="C78" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>55</v>
@@ -2724,20 +2831,20 @@
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I78" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="J78" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="J78" s="22"/>
     </row>
     <row r="79" spans="2:10">
       <c r="B79" s="3"/>
       <c r="C79" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>55</v>
@@ -2746,171 +2853,438 @@
         <v>27</v>
       </c>
       <c r="G79" s="5"/>
-      <c r="H79" s="5" t="s">
+      <c r="H79" s="5"/>
+      <c r="I79" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="J79" s="22"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="3">
+        <v>8</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H81" s="3"/>
+      <c r="I81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="3"/>
+      <c r="C82" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="3"/>
+      <c r="C83" s="5">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I83" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="J83" s="22"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="3"/>
+      <c r="C84" s="5">
+        <v>2</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I79" s="18" t="s">
+      <c r="I84" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="J79" s="18"/>
-    </row>
-    <row r="80" spans="2:10">
-      <c r="B80" s="3"/>
-      <c r="C80" s="5">
+      <c r="J84" s="22"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="3"/>
+      <c r="C85" s="5">
         <v>3</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E80" s="5" t="s">
+      <c r="D85" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5" t="s">
+      <c r="F85" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I80" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J80" s="18"/>
-    </row>
-    <row r="81" spans="2:10">
-      <c r="B81" s="3"/>
-      <c r="C81" s="5">
+      <c r="I85" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J85" s="22"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="3"/>
+      <c r="C86" s="5">
         <v>4</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D86" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="J86" s="22"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="3"/>
+      <c r="C87" s="5">
+        <v>5</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="J87" s="22"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="3">
+        <v>9</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H89" s="3"/>
+      <c r="I89" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="10"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="3"/>
+      <c r="C90" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="3"/>
+      <c r="C91" s="5">
+        <v>1</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="J91" s="22"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="3"/>
+      <c r="C92" s="5">
+        <v>2</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I92" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J92" s="22"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="3"/>
+      <c r="C93" s="5">
+        <v>3</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I93" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J93" s="22"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="3"/>
+      <c r="C94" s="5">
+        <v>4</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E94" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5" t="s">
+      <c r="F94" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I81" s="18" t="s">
+      <c r="I94" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J81" s="18"/>
-    </row>
-    <row r="83" spans="2:10">
-      <c r="B83" t="s">
+      <c r="J94" s="22"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="2:10">
-      <c r="B84" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10">
-      <c r="B85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10">
-      <c r="B86" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10">
-      <c r="B87" t="s">
-        <v>147</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="B68:B74"/>
+  <mergeCells count="106">
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="B81:B87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B5:B29"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B73:B79"/>
+    <mergeCell ref="B56:B71"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
     <mergeCell ref="I74:J74"/>
-    <mergeCell ref="B76:B81"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I76:J76"/>
     <mergeCell ref="I77:J77"/>
     <mergeCell ref="I78:J78"/>
     <mergeCell ref="I79:J79"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B5:B24"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="B43:B58"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
     <mergeCell ref="I69:J69"/>
     <mergeCell ref="I70:J70"/>
     <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="G73:H73"/>
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="I63:J63"/>
     <mergeCell ref="I64:J64"/>
     <mergeCell ref="I65:J65"/>
     <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I67:J67"/>
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="I58:J58"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
     <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:H44"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I39:J39"/>
     <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:H39"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I36:J36"/>
     <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="D5:E5"/>
@@ -2940,29 +3314,29 @@
   <sheetData>
     <row r="1" spans="2:5" ht="19" thickBot="1"/>
     <row r="2" spans="2:5" ht="19" thickBot="1">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="57">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="13"/>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="13"/>
+      <c r="B6" s="15"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" ht="39" thickBot="1">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>24</v>
       </c>
     </row>

--- a/docs/테이블정의서.xlsx
+++ b/docs/테이블정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gayeong/Desktop/0. web-workspace/project_management/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7D9223-3AB5-8241-950C-4893A9EF3E8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174D0EFD-5E44-C74A-8D02-77BC4753A5EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39000" yWindow="500" windowWidth="28200" windowHeight="19920" xr2:uid="{FC9FF7C4-F937-8A44-827A-DE8B55912A71}"/>
+    <workbookView xWindow="28820" yWindow="500" windowWidth="26340" windowHeight="19920" xr2:uid="{FC9FF7C4-F937-8A44-827A-DE8B55912A71}"/>
   </bookViews>
   <sheets>
     <sheet name="정의서" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="231">
   <si>
     <t>회원</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -129,10 +129,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MEM_NUM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -141,10 +137,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회원 고유 번호 (seq_mem_num)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 아이디</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -161,22 +153,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MEM_PW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_EMAIL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -197,54 +173,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MEM_DEPT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_TEAM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_RANK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>직무</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MEM_STATUS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_JOB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_SUB_OFFICER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_CORP_TEL_NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_PHONE_NO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>상태(자리비움, 휴가 등), 공통코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>MEM_WORK_TYPE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_USE_YN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2(20)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -465,23 +401,539 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>REQUEST_MEM_NUM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TASK_MEM_NUM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MODIFIED_MEM_NUM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ADDITIONAL_FILE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>요청자 (MEMBER 테이블의 MEM_NUM)</t>
+    <t>DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(500)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(1000)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 혹은 그룹별 결재라인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_NM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 직접 insert, 한 프로젝트 당 행이 여러개 생김</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재 순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 혹은 그룹별 착수 단계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_PROCESS_STEP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_PROCESS_DO_STEP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCESS_STEP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCESS_DO_STEP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCESS_DO_STEP_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCESS_STEP_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCESS_DO_STEP_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>착수단계 명명 (ex. 요청 - 수신 - 분석 - 설계 - 착수 - 완료 - 테스트)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>착수 단계 순서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_CONTRIBUTER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 참여자 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTRIBUTER_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTH_TOKEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTH_TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소셜로그인 타입, K : 카카오, N: 네이버, G : 구글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소셜 로그인 토큰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업 회원일 경우 관리자 승인 여부 (Y: 승인, N : 미승인 상태, 기본)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 등록 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 수정 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 등록자명 (기본 : 입력받은 가입한 사람의 이름)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 수정자명 (ex. 기업체 어드민 계정 보유자)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_GROUP_MASTER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 번호 (seq_group_master_num)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_MASTER_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 등록자 여부 (Y : 등록자, N : 등록자 아님)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 관리자 여부 (권한 상승) (Y : 관리자, N : 관리자 아님)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_PROJECT_TASK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 업무 목록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_TASK_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_TASK_TITLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_TASK_DETAIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 업무 내용(상세)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 업무 제목(혹은 1줄 요약)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_TASK_START_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 업무 시작 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 업무 종료 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_TASK_END_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_FILE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 관련 파일(기획서, 참고자료) 경로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결재 라인 고유 번호 (seq_process_step_num)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>착수 단계 고유 번호 (seq_process_do_step_num)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFER_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 참여자 고유 번호 (seq_contributer_num)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 참여자 고유 번호 (seq_contributer_num), 담당자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODIFIED_CONTRIBUTER_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 참여자 고유 번호 (seq_contributer_num), 변경된 담당자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_TASK_PROGRESS_RATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 전체 진척률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_ADDITIONAL_TASK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 추가 협의 사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDITIONAL_TASK_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 협의 사항 고유 번호 (seq_additional_task_num)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 업무 고유 번호 (seq_project_task_num)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDITIONAL_TASK_TITLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDITIONAL_TASK_DETAIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDITIONAL_TASK_FILE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 협의 사항 관련 첨부 파일 경로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 협의 사항 상세 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 협의 사항 제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>협의 완료 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(5, 2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_PERSONAL_TASK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_PROJECT_PERSONAL_TASK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트별 개인 업무 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>받은 업무를 개인이 진척도를 올림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_PERSONAL_TASK_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 당 개인이 등록하는 업무 고유 번호(seq_project_personal_task_num)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_PERSONAL_TASK_STEP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_PERSONAL_TASK_CONTENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인이 등록한 받은 업무 처리 절차에 대한 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_PERSONAL_TASK_RATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(3, 2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진척률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인이 등록한 받은 업무에 대한 처리 절차 (1, 2, 3...)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 업무 등록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERSONAL_TASK_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인이 개인적으로 등록한 자신의 할일 목록 고유 번호(seq_persional_task_num)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERSONAL_TASK_STEP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인이 등록한 투두리스트의 순서 (1,2,3...)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERSONAL_TASK_CONTENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인이 등록한 투두리스트의 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERSONAL_TASK_RATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진척률은 투두리스트 체크의  정도로 계산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>착수 일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERSONAL_TASK_START_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERSONAL_TASK_END_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERSONAL_TASK_DO_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERSONAL_TASK_FINISHED_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림 관련 테이블 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 고유번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>읽음 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪽지 관련 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅은 소켓, 휘발성으로 만들기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_PW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_EMAIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_DEPT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBEr_TEAM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_RANK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBEr_JOB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_STATUS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_SUB_OFFICER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_CORP_TEL_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_PHONE_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_WORK_TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_USE_YN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_ADMIN_ACCEPT_YN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBEr_REG_NM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_MODIFIED_NM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBEr_REG_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_MODIFIED_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_GROUP_REG_YN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_GOURP_ADMIN_YN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQUEST_MEMBER_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TASK_MEMBER_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODIFIED_MEMBER_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 고유 번호 (seq_member_num)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청자 (MEMBER 테이블의 MEMBER_NUM)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -509,32 +961,12 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(MEMBER 테이블의 MEM_NUM)</t>
+      <t>(MEMBER 테이블의 MEMBER_NUM)</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>변경된 업무 담당자 (MEMBER 테이블의 MEM_NUM)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(1000)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사 혹은 그룹별 결재라인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROJECT_NM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 직접 insert, 한 프로젝트 당 행이 여러개 생김</t>
+    <t>변경된 업무 담당자 (MEMBER 테이블의 MEMBER_NUM)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -562,180 +994,12 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(MEMBER 테이블의 MEM_NUM)</t>
+      <t>(MEMBER 테이블의 MEMBER_NUM)</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>결재 순서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사 혹은 그룹별 착수 단계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_PROCESS_STEP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_PROCESS_DO_STEP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROCESS_STEP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROCESS_DO_STEP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROCESS_DO_STEP_SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROCESS_STEP_NUM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고유 번호 (seq_process_step_num)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROCESS_DO_STEP_NUM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고유 번호 (seq_process_do_step_num)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>착수단계 명명 (ex. 요청 - 수신 - 분석 - 설계 - 착수 - 완료 - 테스트)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>착수 단계 순서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_CONTRIBUTER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 참여자 목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTRIBUTER_NUM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 참여자 고유 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가로 필요한 테이블 :</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 별 추가할 업무 목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인에게 할당되는 업무 목록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인이 자기 페이지에 기록한 업무 목록 (일별  TODO LIST, 주간, 월간, 연간….)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수치화해주어야함… (후에 착수진행현황 그래프로 보여주고 싶음)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTH_TOKEN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTH_TYPE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소셜로그인 타입, K : 카카오, N: 네이버, G : 구글</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소셜 로그인 토큰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_ADMIN_ACCEPT_YN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기업 회원일 경우 관리자 승인 여부 (Y: 승인, N : 미승인 상태, 기본)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초 등록 일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 정보 수정 일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초 등록자명 (기본 : 입력받은 가입한 사람의 이름)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 정보 수정자명 (ex. 기업체 어드민 계정 보유자)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_REG_NM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_REG_DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_MODIFIED_DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_MODIFIED_NM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_GROUP_MASTER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고유 번호 (seq_group_master_num)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_MASTER_NUM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_GOURP_ADMIN_YN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEM_GROUP_REG_YN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 등록자 여부 (Y : 등록자, N : 등록자 아님)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그룹 관리자 여부 (권한 상승) (Y : 관리자, N : 관리자 아님)</t>
+    <t>작성자, 회원 고유 번호 (seq_member_num)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1305,20 +1569,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196E575B-7554-E846-A05C-ACB85A13203C}">
-  <dimension ref="B2:J100"/>
+  <dimension ref="B2:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="I141" sqref="I141:J141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="43.140625" customWidth="1"/>
+    <col min="10" max="10" width="51.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
@@ -1419,20 +1684,20 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="J7" s="22"/>
     </row>
@@ -1442,18 +1707,18 @@
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J8" s="20"/>
     </row>
@@ -1463,16 +1728,16 @@
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J9" s="20"/>
     </row>
@@ -1482,16 +1747,16 @@
         <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J10" s="20"/>
     </row>
@@ -1501,16 +1766,16 @@
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="19" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="J11" s="20"/>
     </row>
@@ -1520,16 +1785,16 @@
         <v>6</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="19" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="J12" s="20"/>
     </row>
@@ -1539,16 +1804,16 @@
         <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J13" s="20"/>
     </row>
@@ -1558,16 +1823,16 @@
         <v>8</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J14" s="20"/>
     </row>
@@ -1577,16 +1842,16 @@
         <v>9</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J15" s="20"/>
     </row>
@@ -1596,16 +1861,16 @@
         <v>10</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J16" s="20"/>
     </row>
@@ -1615,16 +1880,16 @@
         <v>11</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="19" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J17" s="20"/>
     </row>
@@ -1634,18 +1899,18 @@
         <v>12</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="19" t="s">
         <v>37</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="J18" s="20"/>
     </row>
@@ -1655,16 +1920,16 @@
         <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="19" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J19" s="20"/>
     </row>
@@ -1674,16 +1939,16 @@
         <v>14</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J20" s="20"/>
     </row>
@@ -1693,16 +1958,16 @@
         <v>15</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="19" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J21" s="20"/>
     </row>
@@ -1712,18 +1977,18 @@
         <v>16</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="J22" s="22"/>
     </row>
@@ -1733,16 +1998,16 @@
         <v>17</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="22" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="J23" s="22"/>
     </row>
@@ -1752,16 +2017,16 @@
         <v>18</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="22" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="J24" s="22"/>
     </row>
@@ -1771,18 +2036,18 @@
         <v>19</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>148</v>
+        <v>215</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="19" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="J25" s="20"/>
     </row>
@@ -1792,18 +2057,18 @@
         <v>20</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="19" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="J26" s="20"/>
     </row>
@@ -1813,16 +2078,16 @@
         <v>21</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="19" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="J27" s="20"/>
     </row>
@@ -1832,18 +2097,18 @@
         <v>22</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="19" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="J28" s="20"/>
     </row>
@@ -1853,16 +2118,16 @@
         <v>23</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="19" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="J29" s="20"/>
     </row>
@@ -1885,21 +2150,21 @@
         <v>1</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H31" s="18"/>
       <c r="I31" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="2:10">
@@ -1933,20 +2198,20 @@
         <v>1</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="J33" s="12"/>
     </row>
@@ -1956,20 +2221,20 @@
         <v>2</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="J34" s="22"/>
     </row>
@@ -1979,20 +2244,20 @@
         <v>3</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J35" s="22"/>
     </row>
@@ -2002,18 +2267,18 @@
         <v>4</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="12" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="J36" s="12"/>
     </row>
@@ -2023,18 +2288,18 @@
         <v>5</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>161</v>
+        <v>221</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="12" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="J37" s="12"/>
     </row>
@@ -2046,14 +2311,14 @@
         <v>1</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="4" t="s">
@@ -2092,20 +2357,20 @@
         <v>1</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J41" s="22"/>
     </row>
@@ -2115,18 +2380,18 @@
         <v>2</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="22" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="J42" s="22"/>
     </row>
@@ -2138,14 +2403,14 @@
         <v>1</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="4" t="s">
@@ -2184,22 +2449,22 @@
         <v>1</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G46" s="5">
         <v>1</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="J46" s="22"/>
     </row>
@@ -2209,20 +2474,20 @@
         <v>2</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G47" s="5">
         <v>6</v>
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="22" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="J47" s="22"/>
     </row>
@@ -2232,22 +2497,22 @@
         <v>3</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="J48" s="20"/>
     </row>
@@ -2259,21 +2524,21 @@
         <v>1</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="2:10">
@@ -2307,20 +2572,20 @@
         <v>1</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J52" s="25"/>
     </row>
@@ -2330,20 +2595,20 @@
         <v>2</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J53" s="22"/>
     </row>
@@ -2353,18 +2618,18 @@
         <v>3</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="22" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="J54" s="22"/>
     </row>
@@ -2376,14 +2641,14 @@
         <v>1</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="4" t="s">
@@ -2422,20 +2687,20 @@
         <v>1</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J58" s="22"/>
     </row>
@@ -2445,18 +2710,18 @@
         <v>2</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="22" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="J59" s="22"/>
     </row>
@@ -2466,18 +2731,18 @@
         <v>3</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="22" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="J60" s="22"/>
     </row>
@@ -2487,16 +2752,16 @@
         <v>4</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="22" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="J61" s="22"/>
     </row>
@@ -2506,16 +2771,16 @@
         <v>5</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="22" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="J62" s="22"/>
     </row>
@@ -2525,16 +2790,16 @@
         <v>6</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="22" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="J63" s="22"/>
     </row>
@@ -2544,18 +2809,18 @@
         <v>7</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I64" s="22" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="J64" s="22"/>
     </row>
@@ -2565,16 +2830,16 @@
         <v>8</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="22" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="J65" s="22"/>
     </row>
@@ -2584,16 +2849,16 @@
         <v>9</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="22" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="J66" s="22"/>
     </row>
@@ -2603,16 +2868,16 @@
         <v>10</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="22" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="J67" s="22"/>
     </row>
@@ -2622,16 +2887,16 @@
         <v>11</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="22" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="J68" s="22"/>
     </row>
@@ -2641,18 +2906,18 @@
         <v>12</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I69" s="22" t="s">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="J69" s="22"/>
     </row>
@@ -2662,18 +2927,18 @@
         <v>13</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I70" s="22" t="s">
-        <v>115</v>
+        <v>228</v>
       </c>
       <c r="J70" s="22"/>
     </row>
@@ -2683,16 +2948,16 @@
         <v>14</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="22" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J71" s="22"/>
     </row>
@@ -2704,21 +2969,21 @@
         <v>1</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="2:10">
@@ -2752,20 +3017,20 @@
         <v>1</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J75" s="22"/>
     </row>
@@ -2775,20 +3040,20 @@
         <v>2</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J76" s="22"/>
     </row>
@@ -2798,20 +3063,20 @@
         <v>3</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J77" s="22"/>
     </row>
@@ -2821,20 +3086,20 @@
         <v>4</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I78" s="22" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="J78" s="22"/>
     </row>
@@ -2844,18 +3109,18 @@
         <v>5</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="22" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="J79" s="22"/>
     </row>
@@ -2867,21 +3132,21 @@
         <v>1</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="2:10">
@@ -2915,20 +3180,20 @@
         <v>1</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I83" s="22" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="J83" s="22"/>
     </row>
@@ -2938,20 +3203,20 @@
         <v>2</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I84" s="22" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J84" s="22"/>
     </row>
@@ -2961,20 +3226,20 @@
         <v>3</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I85" s="22" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J85" s="22"/>
     </row>
@@ -2984,18 +3249,18 @@
         <v>4</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="22" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="J86" s="22"/>
     </row>
@@ -3005,18 +3270,18 @@
         <v>5</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="22" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="J87" s="22"/>
     </row>
@@ -3028,14 +3293,14 @@
         <v>1</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="4" t="s">
@@ -3074,20 +3339,20 @@
         <v>1</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I91" s="22" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="J91" s="22"/>
     </row>
@@ -3097,20 +3362,20 @@
         <v>2</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I92" s="22" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="J92" s="22"/>
     </row>
@@ -3120,20 +3385,20 @@
         <v>3</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I93" s="22" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="J93" s="22"/>
     </row>
@@ -3143,51 +3408,1043 @@
         <v>4</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I94" s="22" t="s">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="J94" s="22"/>
     </row>
     <row r="96" spans="2:10">
-      <c r="B96" t="s">
+      <c r="B96" s="3">
+        <v>10</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H96" s="3"/>
+      <c r="I96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J96" s="10"/>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="3"/>
+      <c r="C97" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="3"/>
+      <c r="C98" s="5">
+        <v>1</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I98" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J98" s="22"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="3"/>
+      <c r="C99" s="5">
+        <v>2</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I99" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J99" s="22"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="3"/>
+      <c r="C100" s="5">
+        <v>3</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I100" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J100" s="22"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="3"/>
+      <c r="C101" s="5">
+        <v>4</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="J101" s="22"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="3"/>
+      <c r="C102" s="5">
+        <v>5</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J102" s="10"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="3"/>
+      <c r="C103" s="5">
+        <v>6</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J103" s="10"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="3"/>
+      <c r="C104" s="5">
+        <v>7</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J104" s="10"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="3"/>
+      <c r="C105" s="5">
+        <v>8</v>
+      </c>
+      <c r="D105" s="9" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" t="s">
+      <c r="E105" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
+      <c r="J105" s="10"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="3"/>
+      <c r="C106" s="5">
+        <v>9</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I106" s="22" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" t="s">
+      <c r="J106" s="22"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="3"/>
+      <c r="C107" s="5">
+        <v>10</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I107" s="22" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" t="s">
+      <c r="J107" s="22"/>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="3"/>
+      <c r="C108" s="5">
+        <v>11</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="3"/>
+      <c r="C109" s="5">
+        <v>12</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>143</v>
       </c>
+      <c r="E109" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="3"/>
+      <c r="C110" s="5">
+        <v>13</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I110" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="J110" s="22"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="3"/>
+      <c r="C111" s="5">
+        <v>14</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J111" s="22"/>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="3"/>
+      <c r="C112" s="5">
+        <v>15</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J112" s="10"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="3">
+        <v>11</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E114" s="3"/>
+      <c r="F114" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H114" s="3"/>
+      <c r="I114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J114" s="10"/>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="3"/>
+      <c r="C115" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J115" s="2"/>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="3"/>
+      <c r="C116" s="5">
+        <v>1</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I116" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J116" s="20"/>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="3"/>
+      <c r="C117" s="5">
+        <v>2</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I117" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J117" s="22"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="3"/>
+      <c r="C118" s="5">
+        <v>3</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J118" s="20"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="3"/>
+      <c r="C119" s="5">
+        <v>4</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="J119" s="22"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="3"/>
+      <c r="C120" s="5">
+        <v>5</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J120" s="20"/>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="3"/>
+      <c r="C121" s="5">
+        <v>6</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I121" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="J121" s="22"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="3">
+        <v>12</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H123" s="3"/>
+      <c r="I123" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J123" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="3"/>
+      <c r="C124" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J124" s="2"/>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="3"/>
+      <c r="C125" s="5">
+        <v>1</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I125" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J125" s="20"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="3"/>
+      <c r="C126" s="5">
+        <v>2</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I126" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J126" s="22"/>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="3"/>
+      <c r="C127" s="5">
+        <v>3</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J127" s="20"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="3"/>
+      <c r="C128" s="5">
+        <v>4</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J128" s="22"/>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="3"/>
+      <c r="C129" s="5">
+        <v>5</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J129" s="20"/>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="3"/>
+      <c r="C130" s="5">
+        <v>6</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I130" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="J130" s="22"/>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="3">
+        <v>13</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E132" s="3"/>
+      <c r="F132" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H132" s="3"/>
+      <c r="I132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J132" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="3"/>
+      <c r="C133" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J133" s="2"/>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" s="3"/>
+      <c r="C134" s="5">
+        <v>1</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I134" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J134" s="20"/>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135" s="3"/>
+      <c r="C135" s="5">
+        <v>2</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I135" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="J135" s="22"/>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" s="3"/>
+      <c r="C136" s="5">
+        <v>3</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="J136" s="20"/>
+    </row>
+    <row r="137" spans="2:10">
+      <c r="B137" s="3"/>
+      <c r="C137" s="5">
+        <v>4</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J137" s="22"/>
+    </row>
+    <row r="138" spans="2:10">
+      <c r="B138" s="3"/>
+      <c r="C138" s="5">
+        <v>5</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J138" s="22"/>
+    </row>
+    <row r="139" spans="2:10">
+      <c r="B139" s="3"/>
+      <c r="C139" s="5">
+        <v>6</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J139" s="22"/>
+    </row>
+    <row r="140" spans="2:10">
+      <c r="B140" s="3"/>
+      <c r="C140" s="5">
+        <v>7</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J140" s="20"/>
+    </row>
+    <row r="141" spans="2:10">
+      <c r="B141" s="3"/>
+      <c r="C141" s="5">
+        <v>8</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J141" s="20"/>
+    </row>
+    <row r="142" spans="2:10">
+      <c r="B142" s="3"/>
+      <c r="C142" s="5">
+        <v>9</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J142" s="20"/>
+    </row>
+    <row r="144" spans="2:10">
+      <c r="B144" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="106">
+  <mergeCells count="153">
+    <mergeCell ref="B132:B142"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="I142:J142"/>
+    <mergeCell ref="I141:J141"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="B114:B121"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="B123:B130"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I108:J108"/>
     <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="B96:B112"/>
     <mergeCell ref="I93:J93"/>
     <mergeCell ref="I94:J94"/>
     <mergeCell ref="I11:J11"/>
